--- a/Algorithms/Classic/Queue.xlsx
+++ b/Algorithms/Classic/Queue.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T440P\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Github\SampleCode\Algorithms\Classic\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -565,7 +565,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -653,13 +653,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -906,9 +943,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -924,7 +976,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2147,10 +2199,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2158,9 +2210,10 @@
     <col min="1" max="7" width="2.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.875" customWidth="1"/>
     <col min="11" max="17" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="26" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B1">
         <v>0</v>
       </c>
@@ -2200,8 +2253,26 @@
       <c r="Q1">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>1</v>
+      </c>
+      <c r="W1">
+        <v>2</v>
+      </c>
+      <c r="X1">
+        <v>3</v>
+      </c>
+      <c r="Y1">
+        <v>4</v>
+      </c>
+      <c r="Z1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2237,8 +2308,21 @@
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="10">
+        <v>1</v>
+      </c>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="13"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2266,8 +2350,21 @@
       <c r="O3" s="81"/>
       <c r="P3" s="81"/>
       <c r="Q3" s="56"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3" s="14"/>
+      <c r="V3" s="15">
+        <v>1</v>
+      </c>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2295,8 +2392,19 @@
       <c r="Q4" s="56">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4" s="14"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15">
+        <v>1</v>
+      </c>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="18"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2324,8 +2432,19 @@
         <v>1</v>
       </c>
       <c r="Q5" s="56"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5" s="14"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="18"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2357,8 +2476,21 @@
       <c r="Q6" s="56">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6" s="19">
+        <v>1</v>
+      </c>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="22"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B7" s="68"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
@@ -2380,7 +2512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>0</v>
       </c>
@@ -2408,7 +2540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2428,20 +2560,20 @@
       <c r="J9">
         <v>3</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="82">
         <v>0</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L9" s="83">
+        <v>1</v>
+      </c>
+      <c r="M9" s="83">
+        <v>1</v>
+      </c>
+      <c r="N9" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2453,7 +2585,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2464,8 +2596,29 @@
         <v>1</v>
       </c>
       <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2478,11 +2631,44 @@
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="79">
+        <v>1</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="54">
+        <v>1</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="F13" s="68"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="71">
+        <v>1</v>
+      </c>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="55">
+        <v>1</v>
+      </c>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="16"/>
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>0</v>
       </c>
@@ -2493,8 +2679,24 @@
         <v>4</v>
       </c>
       <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14" s="71"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="55">
+        <v>1</v>
+      </c>
+      <c r="O14" s="81">
+        <v>1</v>
+      </c>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2510,8 +2712,24 @@
       <c r="H15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15" s="71"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15">
+        <v>1</v>
+      </c>
+      <c r="N15" s="55"/>
+      <c r="O15" s="15">
+        <v>1</v>
+      </c>
+      <c r="P15" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="18"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2522,8 +2740,26 @@
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="68"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16" s="71"/>
+      <c r="L16" s="15">
+        <v>1</v>
+      </c>
+      <c r="M16" s="15">
+        <v>1</v>
+      </c>
+      <c r="N16" s="55"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2536,16 +2772,64 @@
       <c r="D17" s="74"/>
       <c r="E17" s="15"/>
       <c r="F17" s="68"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17" s="80"/>
+      <c r="L17" s="20">
+        <v>1</v>
+      </c>
+      <c r="M17" s="20"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B19" s="15">
         <v>0</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19" s="85"/>
+      <c r="L19" s="54">
+        <v>1</v>
+      </c>
+      <c r="M19" s="54">
+        <v>1</v>
+      </c>
+      <c r="N19" s="54">
+        <v>1</v>
+      </c>
+      <c r="O19" s="51"/>
+      <c r="R19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2559,8 +2843,24 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20" s="17">
+        <v>1</v>
+      </c>
+      <c r="L20" s="55">
+        <v>1</v>
+      </c>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55">
+        <v>1</v>
+      </c>
+      <c r="O20" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>4</v>
       </c>
@@ -2571,11 +2871,45 @@
         <v>1</v>
       </c>
       <c r="D21" s="68"/>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21" s="19">
+        <v>1</v>
+      </c>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23" s="82">
+        <v>1</v>
+      </c>
+      <c r="L23" s="86">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
